--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07595596246105434</v>
+        <v>0.09584708875883495</v>
       </c>
       <c r="J2" t="n">
-        <v>1004.006182993271</v>
+        <v>1265.858138217998</v>
       </c>
       <c r="K2" t="n">
-        <v>1427039.646311687</v>
+        <v>2137050.933805774</v>
       </c>
       <c r="L2" t="n">
-        <v>1194.587646977687</v>
+        <v>1461.865566256273</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7308020252265899</v>
+        <v>0.5968648909965271</v>
       </c>
     </row>
   </sheetData>
